--- a/biology/Zoologie/Engoulevent_à_collier_roux/Engoulevent_à_collier_roux.xlsx
+++ b/biology/Zoologie/Engoulevent_à_collier_roux/Engoulevent_à_collier_roux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Engoulevent_%C3%A0_collier_roux</t>
+          <t>Engoulevent_à_collier_roux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caprimulgus ruficollis
 L'Engoulevent à collier roux, aussi nommé Engoulevent à col roux ou Engoulevent à cou roux,  (Caprimulgus ruficollis) est une espèce d'oiseaux de la famille des Caprimulgidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Engoulevent_%C3%A0_collier_roux</t>
+          <t>Engoulevent_à_collier_roux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Engoulevent_%C3%A0_collier_roux</t>
+          <t>Engoulevent_à_collier_roux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,6 +553,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -546,7 +562,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Engoulevent_%C3%A0_collier_roux</t>
+          <t>Engoulevent_à_collier_roux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -564,7 +580,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Répartition
 Cette espèce vit dans la péninsule Ibérique, remontant parfois jusque dans le Sud de la France, et en Afrique du Nord, hivernant dans l'Afrique de l'Ouest tropicale.
@@ -578,7 +596,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Engoulevent_%C3%A0_collier_roux</t>
+          <t>Engoulevent_à_collier_roux</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -596,11 +614,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Caprimulgus ruficollis a été décrite par l’ornithologue Coenraad Jacob Temminck en 1820 [1].
-Taxinomie
-Liste des sous-espèces
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Caprimulgus ruficollis a été décrite par l’ornithologue Coenraad Jacob Temminck en 1820 .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Engoulevent_à_collier_roux</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Engoulevent_%C3%A0_collier_roux</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces
 Caprimulgus ruficollis ruficollis ;
 Caprimulgus ruficollis desertorum.</t>
         </is>
